--- a/2nd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
+++ b/2nd_homework/테스트 결과 보고서/테스트 결과 보고서.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51FFC1C5-7212-4CA2-962A-4DECFEF3978F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5681AB7-F45A-49A9-B919-613D81000021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>RQ-001</t>
   </si>
@@ -178,7 +178,7 @@
     <t>되돌아가기</t>
   </si>
   <si>
-    <t>날씨화면에서 한번더 클릭했을 떄 메인화면으로 돌아와지는가</t>
+    <t>날씨화면에서 한번더 클릭했을 떄 메인화면으로 돌아가는가</t>
   </si>
   <si>
     <t>현재 날씨가 표시되는가</t>
@@ -196,10 +196,7 @@
     <t>출발지에서 목적지까지의 경로가 안내되는가</t>
   </si>
   <si>
-    <t>마커</t>
-  </si>
-  <si>
-    <t>출발지, 목적지의 대여/반납현황이 표시되는가</t>
+    <t>되돌아가기 버튼을 눌렀을 때 처음화면으로 돌아가는가</t>
   </si>
   <si>
     <t>NFRQ-001</t>
@@ -362,12 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -382,13 +373,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -725,7 +722,7 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -735,7 +732,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -745,7 +742,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -773,7 +770,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -783,7 +780,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -793,7 +790,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -803,7 +800,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -813,7 +810,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -823,7 +820,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -833,7 +830,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -841,13 +838,13 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -855,33 +852,33 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
@@ -989,7 +986,7 @@
       <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -999,7 +996,7 @@
     <row r="31" spans="1:4">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1013,7 +1010,7 @@
       <c r="B32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1023,102 +1020,108 @@
     <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="C37" s="8"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="C26:C29"/>
@@ -1129,12 +1132,6 @@
     <mergeCell ref="B14:B29"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
